--- a/biology/Zoologie/Discoglossus_pictus/Discoglossus_pictus.xlsx
+++ b/biology/Zoologie/Discoglossus_pictus/Discoglossus_pictus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Discoglosse peint (Discoglossus pictus) est une espèce d'amphibiens de la famille des Alytidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Discoglosse peint (Discoglossus pictus) est une espèce d'amphibiens de la famille des Alytidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Tunisie, en Algérie, en Sicile et à Malte[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Tunisie, en Algérie, en Sicile et à Malte.
 Elle a été introduite en Espagne et en France.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Deux sous-espèces sont reconnues par l'UICN :
 Discoglossus pictus auritus Herón-Royer, 1888 de Tunisie et Algérie
@@ -575,7 +591,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Otth, 1837 : Beschreibung einer neuen europäischen Froschgattung, Discoglossus. Neue Denkschriften der Allgemeinen Schweizerischen Gesellschaft für die Gesammten Naturwissenschaften, vol. 1, p. 1-8 (texte intégral).
 Herón-Royer, 1888 : Essai sur la transmission de la coloration chez les batraciens anoures. Bulletin de la Société Zoologique de France, vol. 13, p. 205-206 (texte intégral).</t>
